--- a/Datasets/MAE_errors.xlsx
+++ b/Datasets/MAE_errors.xlsx
@@ -423,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.71533203125</v>
+        <v>0.71435546875</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.72216796875</v>
+        <v>0.71533203125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -445,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.71337890625</v>
+        <v>0.72021484375</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -467,7 +467,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.712890625</v>
+        <v>0.7138671875</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.71337890625</v>
+        <v>0.712890625</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -489,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.71484375</v>
+        <v>0.71435546875</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -500,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.7138671875</v>
+        <v>0.71533203125</v>
       </c>
     </row>
   </sheetData>
